--- a/src/pandas_to_excel.xlsx
+++ b/src/pandas_to_excel.xlsx
@@ -16,6 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>weighted avg</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>f1-score</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
 </sst>
 </file>
@@ -455,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,372 +474,412 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.25</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.04841092104636203</v>
-      </c>
-      <c r="W2">
-        <v>0.04852380952380952</v>
-      </c>
-      <c r="X2">
-        <v>0.01421004385935057</v>
-      </c>
-      <c r="Y2">
-        <v>0.01366359503729066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.003154574132492113</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>0.04852380952380952</v>
-      </c>
-      <c r="X3">
-        <v>0.04776926543488057</v>
-      </c>
-      <c r="Y3">
-        <v>0.04852380952380952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.006230529595015577</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0.09235104303958551</v>
-      </c>
-      <c r="W4">
-        <v>0.04852380952380952</v>
-      </c>
-      <c r="X4">
-        <v>0.004694360601647671</v>
-      </c>
-      <c r="Y4">
-        <v>0.004750185398718033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B5">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>990</v>
       </c>
-      <c r="F5">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1050</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>943</v>
       </c>
-      <c r="H5">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1035</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>0.003154574132492113</v>
+      </c>
+      <c r="D9">
+        <v>0.006230529595015577</v>
+      </c>
+      <c r="E9">
         <v>951</v>
       </c>
-      <c r="J5">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1002</v>
       </c>
-      <c r="K5">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>984</v>
       </c>
-      <c r="L5">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>979</v>
       </c>
-      <c r="M5">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>1018</v>
       </c>
-      <c r="N5">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>1026</v>
       </c>
-      <c r="O5">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>1003</v>
       </c>
-      <c r="P5">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>996</v>
       </c>
-      <c r="Q5">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>988</v>
       </c>
-      <c r="R5">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>1033</v>
       </c>
-      <c r="S5">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>1020</v>
       </c>
-      <c r="T5">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>960</v>
       </c>
-      <c r="U5">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>1015</v>
       </c>
-      <c r="V5">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0.04841092104636203</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.09235104303958551</v>
+      </c>
+      <c r="E22">
         <v>1016</v>
       </c>
-      <c r="W5">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>0.04852380952380952</v>
       </c>
-      <c r="X5">
+      <c r="C23">
+        <v>0.04852380952380952</v>
+      </c>
+      <c r="D23">
+        <v>0.04852380952380952</v>
+      </c>
+      <c r="E23">
+        <v>0.04852380952380952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.01421004385935057</v>
+      </c>
+      <c r="C24">
+        <v>0.04776926543488057</v>
+      </c>
+      <c r="D24">
+        <v>0.004694360601647671</v>
+      </c>
+      <c r="E24">
         <v>21000</v>
       </c>
-      <c r="Y5">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.01366359503729066</v>
+      </c>
+      <c r="C25">
+        <v>0.04852380952380952</v>
+      </c>
+      <c r="D25">
+        <v>0.004750185398718033</v>
+      </c>
+      <c r="E25">
         <v>21000</v>
       </c>
     </row>
